--- a/DestroyViruses/Assets/Tables/TableWeaponPowerLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeaponPowerLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>武器2 追踪导弹</t>
   </si>
   <si>
-    <t>武器3 防护罩</t>
+    <t>武器5 防护罩</t>
   </si>
   <si>
     <t>武器4 激光炮</t>
   </si>
   <si>
-    <t>武器5 电磁炮</t>
+    <t>武器3 电磁炮</t>
   </si>
 </sst>
 </file>
@@ -92,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -113,6 +113,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -121,39 +128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -167,8 +143,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,6 +189,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,31 +218,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,15 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +284,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,61 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,96 +456,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -463,30 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,31 +485,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,11 +507,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,9 @@
   <dimension ref="A1:J1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <pane ySplit="3" topLeftCell="A809" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D811" sqref="D811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1243,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1276,7 +1278,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1309,7 +1311,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="1">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1342,7 +1344,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1375,7 +1377,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1408,7 +1410,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="1">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1441,7 +1443,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="1">
-        <v>0.986</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1474,7 +1476,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1507,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>0.982</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1540,7 +1542,7 @@
         <v>128</v>
       </c>
       <c r="E15" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1573,7 +1575,7 @@
         <v>156</v>
       </c>
       <c r="E16" s="1">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1606,7 +1608,7 @@
         <v>184</v>
       </c>
       <c r="E17" s="1">
-        <v>0.976</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1639,7 +1641,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="1">
-        <v>0.974</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1672,7 +1674,7 @@
         <v>240</v>
       </c>
       <c r="E19" s="1">
-        <v>0.972</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1705,7 +1707,7 @@
         <v>268</v>
       </c>
       <c r="E20" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1738,7 +1740,7 @@
         <v>296</v>
       </c>
       <c r="E21" s="1">
-        <v>0.968</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1771,7 +1773,7 @@
         <v>380</v>
       </c>
       <c r="E22" s="1">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1804,7 +1806,7 @@
         <v>464</v>
       </c>
       <c r="E23" s="1">
-        <v>0.964</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1837,7 +1839,7 @@
         <v>548</v>
       </c>
       <c r="E24" s="1">
-        <v>0.962</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1870,7 +1872,7 @@
         <v>632</v>
       </c>
       <c r="E25" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1903,7 +1905,7 @@
         <v>716</v>
       </c>
       <c r="E26" s="1">
-        <v>0.958</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1936,7 +1938,7 @@
         <v>800</v>
       </c>
       <c r="E27" s="1">
-        <v>0.956</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1969,7 +1971,7 @@
         <v>884</v>
       </c>
       <c r="E28" s="1">
-        <v>0.954</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2002,7 +2004,7 @@
         <v>968</v>
       </c>
       <c r="E29" s="1">
-        <v>0.952</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -2035,7 +2037,7 @@
         <v>1052</v>
       </c>
       <c r="E30" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -2068,7 +2070,7 @@
         <v>1136</v>
       </c>
       <c r="E31" s="1">
-        <v>0.948</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -2101,7 +2103,7 @@
         <v>1220</v>
       </c>
       <c r="E32" s="1">
-        <v>0.946</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -2134,7 +2136,7 @@
         <v>1304</v>
       </c>
       <c r="E33" s="1">
-        <v>0.944</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -2167,7 +2169,7 @@
         <v>1388</v>
       </c>
       <c r="E34" s="1">
-        <v>0.942</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2200,7 +2202,7 @@
         <v>2698</v>
       </c>
       <c r="E35" s="1">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2233,7 +2235,7 @@
         <v>4008</v>
       </c>
       <c r="E36" s="1">
-        <v>0.938</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2266,7 +2268,7 @@
         <v>5318</v>
       </c>
       <c r="E37" s="1">
-        <v>0.936</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -2299,7 +2301,7 @@
         <v>6628</v>
       </c>
       <c r="E38" s="1">
-        <v>0.934</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2332,7 +2334,7 @@
         <v>7938</v>
       </c>
       <c r="E39" s="1">
-        <v>0.932</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2365,7 +2367,7 @@
         <v>9248</v>
       </c>
       <c r="E40" s="1">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -2398,7 +2400,7 @@
         <v>10558</v>
       </c>
       <c r="E41" s="1">
-        <v>0.928</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -2431,7 +2433,7 @@
         <v>11868</v>
       </c>
       <c r="E42" s="1">
-        <v>0.926</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -2464,7 +2466,7 @@
         <v>13178</v>
       </c>
       <c r="E43" s="1">
-        <v>0.924</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -2497,7 +2499,7 @@
         <v>23864</v>
       </c>
       <c r="E44" s="1">
-        <v>0.922</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -2530,7 +2532,7 @@
         <v>34550</v>
       </c>
       <c r="E45" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -2563,7 +2565,7 @@
         <v>45236</v>
       </c>
       <c r="E46" s="1">
-        <v>0.918</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2596,7 +2598,7 @@
         <v>55922</v>
       </c>
       <c r="E47" s="1">
-        <v>0.916</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -2629,7 +2631,7 @@
         <v>66608</v>
       </c>
       <c r="E48" s="1">
-        <v>0.914</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -2662,7 +2664,7 @@
         <v>77294</v>
       </c>
       <c r="E49" s="1">
-        <v>0.912</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -2695,7 +2697,7 @@
         <v>87980</v>
       </c>
       <c r="E50" s="1">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -2728,7 +2730,7 @@
         <v>98666</v>
       </c>
       <c r="E51" s="1">
-        <v>0.908</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2761,7 +2763,7 @@
         <v>109352</v>
       </c>
       <c r="E52" s="1">
-        <v>0.906</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -2794,7 +2796,7 @@
         <v>120038</v>
       </c>
       <c r="E53" s="1">
-        <v>0.904</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
@@ -2827,7 +2829,7 @@
         <v>130724</v>
       </c>
       <c r="E54" s="1">
-        <v>0.902</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
@@ -2860,7 +2862,7 @@
         <v>141410</v>
       </c>
       <c r="E55" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
@@ -2893,7 +2895,7 @@
         <v>152096</v>
       </c>
       <c r="E56" s="1">
-        <v>0.898</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -2926,7 +2928,7 @@
         <v>162782</v>
       </c>
       <c r="E57" s="1">
-        <v>0.896</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -2959,7 +2961,7 @@
         <v>173468</v>
       </c>
       <c r="E58" s="1">
-        <v>0.894</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -2992,7 +2994,7 @@
         <v>184154</v>
       </c>
       <c r="E59" s="1">
-        <v>0.892</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -3025,7 +3027,7 @@
         <v>194840</v>
       </c>
       <c r="E60" s="1">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
@@ -3058,7 +3060,7 @@
         <v>205526</v>
       </c>
       <c r="E61" s="1">
-        <v>0.888</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -3091,7 +3093,7 @@
         <v>216212</v>
       </c>
       <c r="E62" s="1">
-        <v>0.886</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -3124,7 +3126,7 @@
         <v>226898</v>
       </c>
       <c r="E63" s="1">
-        <v>0.884</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
@@ -3157,7 +3159,7 @@
         <v>237584</v>
       </c>
       <c r="E64" s="1">
-        <v>0.882</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
@@ -3190,7 +3192,7 @@
         <v>248270</v>
       </c>
       <c r="E65" s="1">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
@@ -3223,7 +3225,7 @@
         <v>258956</v>
       </c>
       <c r="E66" s="1">
-        <v>0.878</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -3256,7 +3258,7 @@
         <v>269642</v>
       </c>
       <c r="E67" s="1">
-        <v>0.876</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -3289,7 +3291,7 @@
         <v>280328</v>
       </c>
       <c r="E68" s="1">
-        <v>0.874</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
@@ -3322,7 +3324,7 @@
         <v>367854</v>
       </c>
       <c r="E69" s="1">
-        <v>0.872</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -3355,7 +3357,7 @@
         <v>455380</v>
       </c>
       <c r="E70" s="1">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
@@ -3388,7 +3390,7 @@
         <v>542906</v>
       </c>
       <c r="E71" s="1">
-        <v>0.868</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -3421,7 +3423,7 @@
         <v>630432</v>
       </c>
       <c r="E72" s="1">
-        <v>0.866</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -3454,7 +3456,7 @@
         <v>717958</v>
       </c>
       <c r="E73" s="1">
-        <v>0.864</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
@@ -3487,7 +3489,7 @@
         <v>805484</v>
       </c>
       <c r="E74" s="1">
-        <v>0.862</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
@@ -3520,7 +3522,7 @@
         <v>893010</v>
       </c>
       <c r="E75" s="1">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -3553,7 +3555,7 @@
         <v>980536</v>
       </c>
       <c r="E76" s="1">
-        <v>0.858</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -3586,7 +3588,7 @@
         <v>1068062</v>
       </c>
       <c r="E77" s="1">
-        <v>0.856</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
@@ -3619,7 +3621,7 @@
         <v>1155588</v>
       </c>
       <c r="E78" s="1">
-        <v>0.854</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
@@ -3652,7 +3654,7 @@
         <v>1243114</v>
       </c>
       <c r="E79" s="1">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>1</v>
@@ -3685,7 +3687,7 @@
         <v>1586886</v>
       </c>
       <c r="E80" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -3718,7 +3720,7 @@
         <v>1930658</v>
       </c>
       <c r="E81" s="1">
-        <v>0.848</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
         <v>1</v>
@@ -3751,7 +3753,7 @@
         <v>2274430</v>
       </c>
       <c r="E82" s="1">
-        <v>0.846</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -3784,7 +3786,7 @@
         <v>2618202</v>
       </c>
       <c r="E83" s="1">
-        <v>0.844</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1">
         <v>1</v>
@@ -3817,7 +3819,7 @@
         <v>2961974</v>
       </c>
       <c r="E84" s="1">
-        <v>0.842</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -3850,7 +3852,7 @@
         <v>3305746</v>
       </c>
       <c r="E85" s="1">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
@@ -3883,7 +3885,7 @@
         <v>3649518</v>
       </c>
       <c r="E86" s="1">
-        <v>0.838</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
@@ -3916,7 +3918,7 @@
         <v>3993290</v>
       </c>
       <c r="E87" s="1">
-        <v>0.836</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -3949,7 +3951,7 @@
         <v>4337062</v>
       </c>
       <c r="E88" s="1">
-        <v>0.834</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1">
         <v>1</v>
@@ -3982,7 +3984,7 @@
         <v>4680834</v>
       </c>
       <c r="E89" s="1">
-        <v>0.832</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -4015,7 +4017,7 @@
         <v>5024606</v>
       </c>
       <c r="E90" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -4048,7 +4050,7 @@
         <v>5368378</v>
       </c>
       <c r="E91" s="1">
-        <v>0.828</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -4081,7 +4083,7 @@
         <v>5712150</v>
       </c>
       <c r="E92" s="1">
-        <v>0.826</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
@@ -4114,7 +4116,7 @@
         <v>6055922</v>
       </c>
       <c r="E93" s="1">
-        <v>0.824</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -4147,7 +4149,7 @@
         <v>6399694</v>
       </c>
       <c r="E94" s="1">
-        <v>0.822</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
         <v>1</v>
@@ -4180,7 +4182,7 @@
         <v>6743466</v>
       </c>
       <c r="E95" s="1">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1">
         <v>1</v>
@@ -4213,7 +4215,7 @@
         <v>7087238</v>
       </c>
       <c r="E96" s="1">
-        <v>0.818</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1">
         <v>1</v>
@@ -4246,7 +4248,7 @@
         <v>7431010</v>
       </c>
       <c r="E97" s="1">
-        <v>0.816</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1">
         <v>1</v>
@@ -4279,7 +4281,7 @@
         <v>7774782</v>
       </c>
       <c r="E98" s="1">
-        <v>0.814</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
@@ -4312,7 +4314,7 @@
         <v>8118554</v>
       </c>
       <c r="E99" s="1">
-        <v>0.812</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
@@ -4345,7 +4347,7 @@
         <v>8462326</v>
       </c>
       <c r="E100" s="1">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
@@ -4378,7 +4380,7 @@
         <v>8806098</v>
       </c>
       <c r="E101" s="1">
-        <v>0.808</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
@@ -4411,7 +4413,7 @@
         <v>9149870</v>
       </c>
       <c r="E102" s="1">
-        <v>0.806</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1">
         <v>1</v>
@@ -4444,7 +4446,7 @@
         <v>9493642</v>
       </c>
       <c r="E103" s="1">
-        <v>0.804</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
@@ -4477,7 +4479,7 @@
         <v>9837414</v>
       </c>
       <c r="E104" s="1">
-        <v>0.802</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
@@ -4510,7 +4512,7 @@
         <v>10181186</v>
       </c>
       <c r="E105" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1">
         <v>1</v>
@@ -4543,7 +4545,7 @@
         <v>10524958</v>
       </c>
       <c r="E106" s="1">
-        <v>0.798</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
@@ -4576,7 +4578,7 @@
         <v>11846052</v>
       </c>
       <c r="E107" s="1">
-        <v>0.796</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
@@ -4609,7 +4611,7 @@
         <v>13167146</v>
       </c>
       <c r="E108" s="1">
-        <v>0.794</v>
+        <v>1</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
@@ -4642,7 +4644,7 @@
         <v>14488240</v>
       </c>
       <c r="E109" s="1">
-        <v>0.792</v>
+        <v>1</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
@@ -4675,7 +4677,7 @@
         <v>15809334</v>
       </c>
       <c r="E110" s="1">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
@@ -4708,7 +4710,7 @@
         <v>17130428</v>
       </c>
       <c r="E111" s="1">
-        <v>0.788</v>
+        <v>1</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -4741,7 +4743,7 @@
         <v>18451522</v>
       </c>
       <c r="E112" s="1">
-        <v>0.786</v>
+        <v>1</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
@@ -4774,7 +4776,7 @@
         <v>19772616</v>
       </c>
       <c r="E113" s="1">
-        <v>0.784</v>
+        <v>1</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
@@ -4807,7 +4809,7 @@
         <v>21093710</v>
       </c>
       <c r="E114" s="1">
-        <v>0.782</v>
+        <v>1</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -4840,7 +4842,7 @@
         <v>22414804</v>
       </c>
       <c r="E115" s="1">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -4873,7 +4875,7 @@
         <v>23735898</v>
       </c>
       <c r="E116" s="1">
-        <v>0.778</v>
+        <v>1</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
@@ -4906,7 +4908,7 @@
         <v>25056992</v>
       </c>
       <c r="E117" s="1">
-        <v>0.776</v>
+        <v>1</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -4939,7 +4941,7 @@
         <v>26378086</v>
       </c>
       <c r="E118" s="1">
-        <v>0.774</v>
+        <v>1</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -4972,7 +4974,7 @@
         <v>27699180</v>
       </c>
       <c r="E119" s="1">
-        <v>0.772</v>
+        <v>1</v>
       </c>
       <c r="F119" s="1">
         <v>1</v>
@@ -5005,7 +5007,7 @@
         <v>29020274</v>
       </c>
       <c r="E120" s="1">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -5038,7 +5040,7 @@
         <v>30341368</v>
       </c>
       <c r="E121" s="1">
-        <v>0.768</v>
+        <v>1</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
@@ -5071,7 +5073,7 @@
         <v>31662462</v>
       </c>
       <c r="E122" s="1">
-        <v>0.766</v>
+        <v>1</v>
       </c>
       <c r="F122" s="1">
         <v>1</v>
@@ -5104,7 +5106,7 @@
         <v>32983556</v>
       </c>
       <c r="E123" s="1">
-        <v>0.764</v>
+        <v>1</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -5137,7 +5139,7 @@
         <v>34304650</v>
       </c>
       <c r="E124" s="1">
-        <v>0.762</v>
+        <v>1</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -5170,7 +5172,7 @@
         <v>35625744</v>
       </c>
       <c r="E125" s="1">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="F125" s="1">
         <v>1</v>
@@ -5203,7 +5205,7 @@
         <v>36946838</v>
       </c>
       <c r="E126" s="1">
-        <v>0.758</v>
+        <v>1</v>
       </c>
       <c r="F126" s="1">
         <v>1</v>
@@ -5236,7 +5238,7 @@
         <v>38267932</v>
       </c>
       <c r="E127" s="1">
-        <v>0.756</v>
+        <v>1</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -5269,7 +5271,7 @@
         <v>39589026</v>
       </c>
       <c r="E128" s="1">
-        <v>0.754</v>
+        <v>1</v>
       </c>
       <c r="F128" s="1">
         <v>1</v>
@@ -5302,7 +5304,7 @@
         <v>40910120</v>
       </c>
       <c r="E129" s="1">
-        <v>0.752</v>
+        <v>1</v>
       </c>
       <c r="F129" s="1">
         <v>1</v>
@@ -5335,7 +5337,7 @@
         <v>42231214</v>
       </c>
       <c r="E130" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F130" s="1">
         <v>1</v>
@@ -5368,7 +5370,7 @@
         <v>43552308</v>
       </c>
       <c r="E131" s="1">
-        <v>0.748</v>
+        <v>1</v>
       </c>
       <c r="F131" s="1">
         <v>1</v>
@@ -5401,7 +5403,7 @@
         <v>44873402</v>
       </c>
       <c r="E132" s="1">
-        <v>0.746</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
@@ -5434,7 +5436,7 @@
         <v>46194496</v>
       </c>
       <c r="E133" s="1">
-        <v>0.744</v>
+        <v>1</v>
       </c>
       <c r="F133" s="1">
         <v>1</v>
@@ -5467,7 +5469,7 @@
         <v>47515590</v>
       </c>
       <c r="E134" s="1">
-        <v>0.742</v>
+        <v>1</v>
       </c>
       <c r="F134" s="1">
         <v>1</v>
@@ -5500,7 +5502,7 @@
         <v>48836684</v>
       </c>
       <c r="E135" s="1">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -5533,7 +5535,7 @@
         <v>50157778</v>
       </c>
       <c r="E136" s="1">
-        <v>0.738</v>
+        <v>1</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -5566,7 +5568,7 @@
         <v>51478872</v>
       </c>
       <c r="E137" s="1">
-        <v>0.736</v>
+        <v>1</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
@@ -5599,7 +5601,7 @@
         <v>52799966</v>
       </c>
       <c r="E138" s="1">
-        <v>0.734</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -5632,7 +5634,7 @@
         <v>54121060</v>
       </c>
       <c r="E139" s="1">
-        <v>0.732</v>
+        <v>1</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -5665,7 +5667,7 @@
         <v>55442154</v>
       </c>
       <c r="E140" s="1">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -5698,7 +5700,7 @@
         <v>56763248</v>
       </c>
       <c r="E141" s="1">
-        <v>0.728</v>
+        <v>1</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -5731,7 +5733,7 @@
         <v>58084342</v>
       </c>
       <c r="E142" s="1">
-        <v>0.726</v>
+        <v>1</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -5764,7 +5766,7 @@
         <v>59405436</v>
       </c>
       <c r="E143" s="1">
-        <v>0.724</v>
+        <v>1</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -5797,7 +5799,7 @@
         <v>60726530</v>
       </c>
       <c r="E144" s="1">
-        <v>0.722</v>
+        <v>1</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -5830,7 +5832,7 @@
         <v>62047624</v>
       </c>
       <c r="E145" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -5863,7 +5865,7 @@
         <v>63368718</v>
       </c>
       <c r="E146" s="1">
-        <v>0.718</v>
+        <v>1</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
@@ -5896,7 +5898,7 @@
         <v>64689812</v>
       </c>
       <c r="E147" s="1">
-        <v>0.716</v>
+        <v>1</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -5929,7 +5931,7 @@
         <v>66010906</v>
       </c>
       <c r="E148" s="1">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -5962,7 +5964,7 @@
         <v>67332000</v>
       </c>
       <c r="E149" s="1">
-        <v>0.712</v>
+        <v>1</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
@@ -5995,7 +5997,7 @@
         <v>68653094</v>
       </c>
       <c r="E150" s="1">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -6028,7 +6030,7 @@
         <v>69974188</v>
       </c>
       <c r="E151" s="1">
-        <v>0.708</v>
+        <v>1</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -6061,7 +6063,7 @@
         <v>71295282</v>
       </c>
       <c r="E152" s="1">
-        <v>0.706</v>
+        <v>1</v>
       </c>
       <c r="F152" s="1">
         <v>1</v>
@@ -6094,7 +6096,7 @@
         <v>72616376</v>
       </c>
       <c r="E153" s="1">
-        <v>0.704</v>
+        <v>1</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -6127,7 +6129,7 @@
         <v>73937470</v>
       </c>
       <c r="E154" s="1">
-        <v>0.702</v>
+        <v>1</v>
       </c>
       <c r="F154" s="1">
         <v>1</v>
@@ -6160,7 +6162,7 @@
         <v>75258564</v>
       </c>
       <c r="E155" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F155" s="1">
         <v>1</v>
@@ -6193,7 +6195,7 @@
         <v>76579658</v>
       </c>
       <c r="E156" s="1">
-        <v>0.698</v>
+        <v>1</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
@@ -6226,7 +6228,7 @@
         <v>77900752</v>
       </c>
       <c r="E157" s="1">
-        <v>0.696</v>
+        <v>1</v>
       </c>
       <c r="F157" s="1">
         <v>1</v>
@@ -6259,7 +6261,7 @@
         <v>79221846</v>
       </c>
       <c r="E158" s="1">
-        <v>0.694</v>
+        <v>1</v>
       </c>
       <c r="F158" s="1">
         <v>1</v>
@@ -6292,7 +6294,7 @@
         <v>80542940</v>
       </c>
       <c r="E159" s="1">
-        <v>0.692</v>
+        <v>1</v>
       </c>
       <c r="F159" s="1">
         <v>1</v>
@@ -6325,7 +6327,7 @@
         <v>81864034</v>
       </c>
       <c r="E160" s="1">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="F160" s="1">
         <v>1</v>
@@ -6358,7 +6360,7 @@
         <v>83185128</v>
       </c>
       <c r="E161" s="1">
-        <v>0.688</v>
+        <v>1</v>
       </c>
       <c r="F161" s="1">
         <v>1</v>
@@ -6391,7 +6393,7 @@
         <v>84506222</v>
       </c>
       <c r="E162" s="1">
-        <v>0.686</v>
+        <v>1</v>
       </c>
       <c r="F162" s="1">
         <v>1</v>
@@ -6424,7 +6426,7 @@
         <v>85827316</v>
       </c>
       <c r="E163" s="1">
-        <v>0.684</v>
+        <v>1</v>
       </c>
       <c r="F163" s="1">
         <v>1</v>
@@ -6457,7 +6459,7 @@
         <v>87148410</v>
       </c>
       <c r="E164" s="1">
-        <v>0.682</v>
+        <v>1</v>
       </c>
       <c r="F164" s="1">
         <v>1</v>
@@ -6490,7 +6492,7 @@
         <v>88469504</v>
       </c>
       <c r="E165" s="1">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="F165" s="1">
         <v>1</v>
@@ -6523,7 +6525,7 @@
         <v>89790598</v>
       </c>
       <c r="E166" s="1">
-        <v>0.678</v>
+        <v>1</v>
       </c>
       <c r="F166" s="1">
         <v>1</v>
@@ -6556,7 +6558,7 @@
         <v>91111692</v>
       </c>
       <c r="E167" s="1">
-        <v>0.676</v>
+        <v>1</v>
       </c>
       <c r="F167" s="1">
         <v>1</v>
@@ -6589,7 +6591,7 @@
         <v>92432786</v>
       </c>
       <c r="E168" s="1">
-        <v>0.674</v>
+        <v>1</v>
       </c>
       <c r="F168" s="1">
         <v>1</v>
@@ -6622,7 +6624,7 @@
         <v>93753880</v>
       </c>
       <c r="E169" s="1">
-        <v>0.672</v>
+        <v>1</v>
       </c>
       <c r="F169" s="1">
         <v>1</v>
@@ -6655,7 +6657,7 @@
         <v>95074974</v>
       </c>
       <c r="E170" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F170" s="1">
         <v>1</v>
@@ -6688,7 +6690,7 @@
         <v>96396068</v>
       </c>
       <c r="E171" s="1">
-        <v>0.668</v>
+        <v>1</v>
       </c>
       <c r="F171" s="1">
         <v>1</v>
@@ -6721,7 +6723,7 @@
         <v>97717162</v>
       </c>
       <c r="E172" s="1">
-        <v>0.666</v>
+        <v>1</v>
       </c>
       <c r="F172" s="1">
         <v>1</v>
@@ -6754,7 +6756,7 @@
         <v>99038256</v>
       </c>
       <c r="E173" s="1">
-        <v>0.664</v>
+        <v>1</v>
       </c>
       <c r="F173" s="1">
         <v>1</v>
@@ -6787,7 +6789,7 @@
         <v>100359350</v>
       </c>
       <c r="E174" s="1">
-        <v>0.662</v>
+        <v>1</v>
       </c>
       <c r="F174" s="1">
         <v>1</v>
@@ -6820,7 +6822,7 @@
         <v>106000000</v>
       </c>
       <c r="E175" s="1">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="F175" s="1">
         <v>1</v>
@@ -6853,7 +6855,7 @@
         <v>111640650</v>
       </c>
       <c r="E176" s="1">
-        <v>0.658</v>
+        <v>1</v>
       </c>
       <c r="F176" s="1">
         <v>1</v>
@@ -6886,7 +6888,7 @@
         <v>117281300</v>
       </c>
       <c r="E177" s="1">
-        <v>0.656</v>
+        <v>1</v>
       </c>
       <c r="F177" s="1">
         <v>1</v>
@@ -6919,7 +6921,7 @@
         <v>122921950</v>
       </c>
       <c r="E178" s="1">
-        <v>0.654</v>
+        <v>1</v>
       </c>
       <c r="F178" s="1">
         <v>1</v>
@@ -6952,7 +6954,7 @@
         <v>128562600</v>
       </c>
       <c r="E179" s="1">
-        <v>0.652</v>
+        <v>1</v>
       </c>
       <c r="F179" s="1">
         <v>1</v>
@@ -6985,7 +6987,7 @@
         <v>134203250</v>
       </c>
       <c r="E180" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F180" s="1">
         <v>1</v>
@@ -7018,7 +7020,7 @@
         <v>139843900</v>
       </c>
       <c r="E181" s="1">
-        <v>0.648</v>
+        <v>1</v>
       </c>
       <c r="F181" s="1">
         <v>1</v>
@@ -7051,7 +7053,7 @@
         <v>145484550</v>
       </c>
       <c r="E182" s="1">
-        <v>0.646</v>
+        <v>1</v>
       </c>
       <c r="F182" s="1">
         <v>1</v>
@@ -7084,7 +7086,7 @@
         <v>151125200</v>
       </c>
       <c r="E183" s="1">
-        <v>0.644</v>
+        <v>1</v>
       </c>
       <c r="F183" s="1">
         <v>1</v>
@@ -7117,7 +7119,7 @@
         <v>156765850</v>
       </c>
       <c r="E184" s="1">
-        <v>0.642</v>
+        <v>1</v>
       </c>
       <c r="F184" s="1">
         <v>1</v>
@@ -7150,7 +7152,7 @@
         <v>162406500</v>
       </c>
       <c r="E185" s="1">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="F185" s="1">
         <v>1</v>
@@ -7183,7 +7185,7 @@
         <v>168047150</v>
       </c>
       <c r="E186" s="1">
-        <v>0.638</v>
+        <v>1</v>
       </c>
       <c r="F186" s="1">
         <v>1</v>
@@ -7216,7 +7218,7 @@
         <v>173687800</v>
       </c>
       <c r="E187" s="1">
-        <v>0.636</v>
+        <v>1</v>
       </c>
       <c r="F187" s="1">
         <v>1</v>
@@ -7249,7 +7251,7 @@
         <v>179328450</v>
       </c>
       <c r="E188" s="1">
-        <v>0.634</v>
+        <v>1</v>
       </c>
       <c r="F188" s="1">
         <v>1</v>
@@ -7282,7 +7284,7 @@
         <v>184969100</v>
       </c>
       <c r="E189" s="1">
-        <v>0.632</v>
+        <v>1</v>
       </c>
       <c r="F189" s="1">
         <v>1</v>
@@ -7315,7 +7317,7 @@
         <v>190609750</v>
       </c>
       <c r="E190" s="1">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="F190" s="1">
         <v>1</v>
@@ -7348,7 +7350,7 @@
         <v>196250400</v>
       </c>
       <c r="E191" s="1">
-        <v>0.628</v>
+        <v>1</v>
       </c>
       <c r="F191" s="1">
         <v>1</v>
@@ -7381,7 +7383,7 @@
         <v>201891050</v>
       </c>
       <c r="E192" s="1">
-        <v>0.626</v>
+        <v>1</v>
       </c>
       <c r="F192" s="1">
         <v>1</v>
@@ -7414,7 +7416,7 @@
         <v>207531700</v>
       </c>
       <c r="E193" s="1">
-        <v>0.624</v>
+        <v>1</v>
       </c>
       <c r="F193" s="1">
         <v>1</v>
@@ -7447,7 +7449,7 @@
         <v>213172350</v>
       </c>
       <c r="E194" s="1">
-        <v>0.622</v>
+        <v>1</v>
       </c>
       <c r="F194" s="1">
         <v>1</v>
@@ -7480,7 +7482,7 @@
         <v>218813000</v>
       </c>
       <c r="E195" s="1">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="F195" s="1">
         <v>1</v>
@@ -7513,7 +7515,7 @@
         <v>224453650</v>
       </c>
       <c r="E196" s="1">
-        <v>0.618</v>
+        <v>1</v>
       </c>
       <c r="F196" s="1">
         <v>1</v>
@@ -7546,7 +7548,7 @@
         <v>230094300</v>
       </c>
       <c r="E197" s="1">
-        <v>0.616</v>
+        <v>1</v>
       </c>
       <c r="F197" s="1">
         <v>1</v>
@@ -7579,7 +7581,7 @@
         <v>235734950</v>
       </c>
       <c r="E198" s="1">
-        <v>0.614</v>
+        <v>1</v>
       </c>
       <c r="F198" s="1">
         <v>1</v>
@@ -7612,7 +7614,7 @@
         <v>241375600</v>
       </c>
       <c r="E199" s="1">
-        <v>0.612</v>
+        <v>1</v>
       </c>
       <c r="F199" s="1">
         <v>1</v>
@@ -7645,7 +7647,7 @@
         <v>247016250</v>
       </c>
       <c r="E200" s="1">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="F200" s="1">
         <v>1</v>
@@ -7678,7 +7680,7 @@
         <v>252656900</v>
       </c>
       <c r="E201" s="1">
-        <v>0.608</v>
+        <v>1</v>
       </c>
       <c r="F201" s="1">
         <v>1</v>
@@ -7711,7 +7713,7 @@
         <v>258297550</v>
       </c>
       <c r="E202" s="1">
-        <v>0.606</v>
+        <v>1</v>
       </c>
       <c r="F202" s="1">
         <v>1</v>
@@ -7744,7 +7746,7 @@
         <v>263938200</v>
       </c>
       <c r="E203" s="1">
-        <v>0.604</v>
+        <v>1</v>
       </c>
       <c r="F203" s="1">
         <v>1</v>
@@ -7777,7 +7779,7 @@
         <v>269578850</v>
       </c>
       <c r="E204" s="1">
-        <v>0.602</v>
+        <v>1</v>
       </c>
       <c r="F204" s="1">
         <v>1</v>
@@ -14232,7 +14234,7 @@
         <v>401</v>
       </c>
       <c r="B409" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C409" s="7">
         <v>1</v>
@@ -14266,7 +14268,7 @@
         <v>402</v>
       </c>
       <c r="B410" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C410" s="7">
         <v>2</v>
@@ -14300,7 +14302,7 @@
         <v>403</v>
       </c>
       <c r="B411" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C411" s="7">
         <v>3</v>
@@ -14334,7 +14336,7 @@
         <v>404</v>
       </c>
       <c r="B412" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C412" s="7">
         <v>4</v>
@@ -14368,7 +14370,7 @@
         <v>405</v>
       </c>
       <c r="B413" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C413" s="7">
         <v>5</v>
@@ -14402,7 +14404,7 @@
         <v>406</v>
       </c>
       <c r="B414" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C414" s="7">
         <v>6</v>
@@ -14436,7 +14438,7 @@
         <v>407</v>
       </c>
       <c r="B415" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C415" s="7">
         <v>7</v>
@@ -14470,7 +14472,7 @@
         <v>408</v>
       </c>
       <c r="B416" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C416" s="7">
         <v>8</v>
@@ -14504,7 +14506,7 @@
         <v>409</v>
       </c>
       <c r="B417" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C417" s="7">
         <v>9</v>
@@ -14538,7 +14540,7 @@
         <v>410</v>
       </c>
       <c r="B418" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C418" s="7">
         <v>10</v>
@@ -14572,7 +14574,7 @@
         <v>411</v>
       </c>
       <c r="B419" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C419" s="7">
         <v>11</v>
@@ -14606,7 +14608,7 @@
         <v>412</v>
       </c>
       <c r="B420" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C420" s="7">
         <v>12</v>
@@ -14640,7 +14642,7 @@
         <v>413</v>
       </c>
       <c r="B421" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C421" s="7">
         <v>13</v>
@@ -14674,7 +14676,7 @@
         <v>414</v>
       </c>
       <c r="B422" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C422" s="7">
         <v>14</v>
@@ -14708,7 +14710,7 @@
         <v>415</v>
       </c>
       <c r="B423" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C423" s="7">
         <v>15</v>
@@ -14742,7 +14744,7 @@
         <v>416</v>
       </c>
       <c r="B424" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C424" s="7">
         <v>16</v>
@@ -14776,7 +14778,7 @@
         <v>417</v>
       </c>
       <c r="B425" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C425" s="7">
         <v>17</v>
@@ -14810,7 +14812,7 @@
         <v>418</v>
       </c>
       <c r="B426" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C426" s="7">
         <v>18</v>
@@ -14844,7 +14846,7 @@
         <v>419</v>
       </c>
       <c r="B427" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C427" s="7">
         <v>19</v>
@@ -14878,7 +14880,7 @@
         <v>420</v>
       </c>
       <c r="B428" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C428" s="7">
         <v>20</v>
@@ -14912,7 +14914,7 @@
         <v>421</v>
       </c>
       <c r="B429" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C429" s="7">
         <v>21</v>
@@ -14946,7 +14948,7 @@
         <v>422</v>
       </c>
       <c r="B430" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C430" s="7">
         <v>22</v>
@@ -14980,7 +14982,7 @@
         <v>423</v>
       </c>
       <c r="B431" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C431" s="7">
         <v>23</v>
@@ -15014,7 +15016,7 @@
         <v>424</v>
       </c>
       <c r="B432" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C432" s="7">
         <v>24</v>
@@ -15048,7 +15050,7 @@
         <v>425</v>
       </c>
       <c r="B433" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C433" s="7">
         <v>25</v>
@@ -15082,7 +15084,7 @@
         <v>426</v>
       </c>
       <c r="B434" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C434" s="7">
         <v>26</v>
@@ -15116,7 +15118,7 @@
         <v>427</v>
       </c>
       <c r="B435" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C435" s="7">
         <v>27</v>
@@ -15150,7 +15152,7 @@
         <v>428</v>
       </c>
       <c r="B436" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C436" s="7">
         <v>28</v>
@@ -15184,7 +15186,7 @@
         <v>429</v>
       </c>
       <c r="B437" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C437" s="7">
         <v>29</v>
@@ -15218,7 +15220,7 @@
         <v>430</v>
       </c>
       <c r="B438" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C438" s="7">
         <v>30</v>
@@ -15252,7 +15254,7 @@
         <v>431</v>
       </c>
       <c r="B439" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C439" s="7">
         <v>31</v>
@@ -15286,7 +15288,7 @@
         <v>432</v>
       </c>
       <c r="B440" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C440" s="7">
         <v>32</v>
@@ -15320,7 +15322,7 @@
         <v>433</v>
       </c>
       <c r="B441" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C441" s="7">
         <v>33</v>
@@ -15354,7 +15356,7 @@
         <v>434</v>
       </c>
       <c r="B442" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C442" s="7">
         <v>34</v>
@@ -15388,7 +15390,7 @@
         <v>435</v>
       </c>
       <c r="B443" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C443" s="7">
         <v>35</v>
@@ -15422,7 +15424,7 @@
         <v>436</v>
       </c>
       <c r="B444" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C444" s="7">
         <v>36</v>
@@ -15456,7 +15458,7 @@
         <v>437</v>
       </c>
       <c r="B445" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C445" s="7">
         <v>37</v>
@@ -15490,7 +15492,7 @@
         <v>438</v>
       </c>
       <c r="B446" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C446" s="7">
         <v>38</v>
@@ -15524,7 +15526,7 @@
         <v>439</v>
       </c>
       <c r="B447" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C447" s="7">
         <v>39</v>
@@ -15558,7 +15560,7 @@
         <v>440</v>
       </c>
       <c r="B448" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C448" s="7">
         <v>40</v>
@@ -15592,7 +15594,7 @@
         <v>441</v>
       </c>
       <c r="B449" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C449" s="7">
         <v>41</v>
@@ -15626,7 +15628,7 @@
         <v>442</v>
       </c>
       <c r="B450" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C450" s="7">
         <v>42</v>
@@ -15660,7 +15662,7 @@
         <v>443</v>
       </c>
       <c r="B451" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C451" s="7">
         <v>43</v>
@@ -15694,7 +15696,7 @@
         <v>444</v>
       </c>
       <c r="B452" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C452" s="7">
         <v>44</v>
@@ -15728,7 +15730,7 @@
         <v>445</v>
       </c>
       <c r="B453" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C453" s="7">
         <v>45</v>
@@ -15762,7 +15764,7 @@
         <v>446</v>
       </c>
       <c r="B454" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C454" s="7">
         <v>46</v>
@@ -15796,7 +15798,7 @@
         <v>447</v>
       </c>
       <c r="B455" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C455" s="7">
         <v>47</v>
@@ -15830,7 +15832,7 @@
         <v>448</v>
       </c>
       <c r="B456" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C456" s="7">
         <v>48</v>
@@ -15864,7 +15866,7 @@
         <v>449</v>
       </c>
       <c r="B457" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C457" s="7">
         <v>49</v>
@@ -15898,7 +15900,7 @@
         <v>450</v>
       </c>
       <c r="B458" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C458" s="7">
         <v>50</v>
@@ -15932,7 +15934,7 @@
         <v>451</v>
       </c>
       <c r="B459" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C459" s="7">
         <v>51</v>
@@ -15966,7 +15968,7 @@
         <v>452</v>
       </c>
       <c r="B460" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C460" s="7">
         <v>52</v>
@@ -16000,7 +16002,7 @@
         <v>453</v>
       </c>
       <c r="B461" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C461" s="7">
         <v>53</v>
@@ -16034,7 +16036,7 @@
         <v>454</v>
       </c>
       <c r="B462" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C462" s="7">
         <v>54</v>
@@ -16068,7 +16070,7 @@
         <v>455</v>
       </c>
       <c r="B463" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C463" s="7">
         <v>55</v>
@@ -16102,7 +16104,7 @@
         <v>456</v>
       </c>
       <c r="B464" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C464" s="7">
         <v>56</v>
@@ -16136,7 +16138,7 @@
         <v>457</v>
       </c>
       <c r="B465" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C465" s="7">
         <v>57</v>
@@ -16170,7 +16172,7 @@
         <v>458</v>
       </c>
       <c r="B466" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C466" s="7">
         <v>58</v>
@@ -16204,7 +16206,7 @@
         <v>459</v>
       </c>
       <c r="B467" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C467" s="7">
         <v>59</v>
@@ -16238,7 +16240,7 @@
         <v>460</v>
       </c>
       <c r="B468" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C468" s="7">
         <v>60</v>
@@ -16272,7 +16274,7 @@
         <v>461</v>
       </c>
       <c r="B469" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C469" s="7">
         <v>61</v>
@@ -16306,7 +16308,7 @@
         <v>462</v>
       </c>
       <c r="B470" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C470" s="7">
         <v>62</v>
@@ -16340,7 +16342,7 @@
         <v>463</v>
       </c>
       <c r="B471" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C471" s="7">
         <v>63</v>
@@ -16374,7 +16376,7 @@
         <v>464</v>
       </c>
       <c r="B472" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C472" s="7">
         <v>64</v>
@@ -16408,7 +16410,7 @@
         <v>465</v>
       </c>
       <c r="B473" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C473" s="7">
         <v>65</v>
@@ -16442,7 +16444,7 @@
         <v>466</v>
       </c>
       <c r="B474" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C474" s="7">
         <v>66</v>
@@ -16476,7 +16478,7 @@
         <v>467</v>
       </c>
       <c r="B475" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C475" s="7">
         <v>67</v>
@@ -16510,7 +16512,7 @@
         <v>468</v>
       </c>
       <c r="B476" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C476" s="7">
         <v>68</v>
@@ -16544,7 +16546,7 @@
         <v>469</v>
       </c>
       <c r="B477" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C477" s="7">
         <v>69</v>
@@ -16578,7 +16580,7 @@
         <v>470</v>
       </c>
       <c r="B478" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C478" s="7">
         <v>70</v>
@@ -16612,7 +16614,7 @@
         <v>471</v>
       </c>
       <c r="B479" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C479" s="7">
         <v>71</v>
@@ -16646,7 +16648,7 @@
         <v>472</v>
       </c>
       <c r="B480" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C480" s="7">
         <v>72</v>
@@ -16680,7 +16682,7 @@
         <v>473</v>
       </c>
       <c r="B481" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C481" s="7">
         <v>73</v>
@@ -16714,7 +16716,7 @@
         <v>474</v>
       </c>
       <c r="B482" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C482" s="7">
         <v>74</v>
@@ -16748,7 +16750,7 @@
         <v>475</v>
       </c>
       <c r="B483" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C483" s="7">
         <v>75</v>
@@ -16782,7 +16784,7 @@
         <v>476</v>
       </c>
       <c r="B484" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C484" s="7">
         <v>76</v>
@@ -16816,7 +16818,7 @@
         <v>477</v>
       </c>
       <c r="B485" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C485" s="7">
         <v>77</v>
@@ -16850,7 +16852,7 @@
         <v>478</v>
       </c>
       <c r="B486" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C486" s="7">
         <v>78</v>
@@ -16884,7 +16886,7 @@
         <v>479</v>
       </c>
       <c r="B487" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C487" s="7">
         <v>79</v>
@@ -16918,7 +16920,7 @@
         <v>480</v>
       </c>
       <c r="B488" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C488" s="7">
         <v>80</v>
@@ -16952,7 +16954,7 @@
         <v>481</v>
       </c>
       <c r="B489" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C489" s="7">
         <v>81</v>
@@ -16986,7 +16988,7 @@
         <v>482</v>
       </c>
       <c r="B490" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C490" s="7">
         <v>82</v>
@@ -17020,7 +17022,7 @@
         <v>483</v>
       </c>
       <c r="B491" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C491" s="7">
         <v>83</v>
@@ -17054,7 +17056,7 @@
         <v>484</v>
       </c>
       <c r="B492" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C492" s="7">
         <v>84</v>
@@ -17088,7 +17090,7 @@
         <v>485</v>
       </c>
       <c r="B493" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C493" s="7">
         <v>85</v>
@@ -17122,7 +17124,7 @@
         <v>486</v>
       </c>
       <c r="B494" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C494" s="7">
         <v>86</v>
@@ -17156,7 +17158,7 @@
         <v>487</v>
       </c>
       <c r="B495" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C495" s="7">
         <v>87</v>
@@ -17190,7 +17192,7 @@
         <v>488</v>
       </c>
       <c r="B496" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C496" s="7">
         <v>88</v>
@@ -17224,7 +17226,7 @@
         <v>489</v>
       </c>
       <c r="B497" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C497" s="7">
         <v>89</v>
@@ -17258,7 +17260,7 @@
         <v>490</v>
       </c>
       <c r="B498" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C498" s="7">
         <v>90</v>
@@ -17292,7 +17294,7 @@
         <v>491</v>
       </c>
       <c r="B499" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C499" s="7">
         <v>91</v>
@@ -17326,7 +17328,7 @@
         <v>492</v>
       </c>
       <c r="B500" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C500" s="7">
         <v>92</v>
@@ -17360,7 +17362,7 @@
         <v>493</v>
       </c>
       <c r="B501" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C501" s="7">
         <v>93</v>
@@ -17394,7 +17396,7 @@
         <v>494</v>
       </c>
       <c r="B502" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C502" s="7">
         <v>94</v>
@@ -17428,7 +17430,7 @@
         <v>495</v>
       </c>
       <c r="B503" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C503" s="7">
         <v>95</v>
@@ -17462,7 +17464,7 @@
         <v>496</v>
       </c>
       <c r="B504" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C504" s="7">
         <v>96</v>
@@ -17496,7 +17498,7 @@
         <v>497</v>
       </c>
       <c r="B505" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C505" s="7">
         <v>97</v>
@@ -17530,7 +17532,7 @@
         <v>498</v>
       </c>
       <c r="B506" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C506" s="7">
         <v>98</v>
@@ -17564,7 +17566,7 @@
         <v>499</v>
       </c>
       <c r="B507" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C507" s="7">
         <v>99</v>
@@ -17598,7 +17600,7 @@
         <v>500</v>
       </c>
       <c r="B508" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C508" s="7">
         <v>100</v>
@@ -17632,7 +17634,7 @@
         <v>501</v>
       </c>
       <c r="B509" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C509" s="7">
         <v>101</v>
@@ -17666,7 +17668,7 @@
         <v>502</v>
       </c>
       <c r="B510" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C510" s="7">
         <v>102</v>
@@ -17700,7 +17702,7 @@
         <v>503</v>
       </c>
       <c r="B511" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C511" s="7">
         <v>103</v>
@@ -17734,7 +17736,7 @@
         <v>504</v>
       </c>
       <c r="B512" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C512" s="7">
         <v>104</v>
@@ -17768,7 +17770,7 @@
         <v>505</v>
       </c>
       <c r="B513" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C513" s="7">
         <v>105</v>
@@ -17802,7 +17804,7 @@
         <v>506</v>
       </c>
       <c r="B514" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C514" s="7">
         <v>106</v>
@@ -17836,7 +17838,7 @@
         <v>507</v>
       </c>
       <c r="B515" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C515" s="7">
         <v>107</v>
@@ -17870,7 +17872,7 @@
         <v>508</v>
       </c>
       <c r="B516" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C516" s="7">
         <v>108</v>
@@ -17904,7 +17906,7 @@
         <v>509</v>
       </c>
       <c r="B517" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C517" s="7">
         <v>109</v>
@@ -17938,7 +17940,7 @@
         <v>510</v>
       </c>
       <c r="B518" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C518" s="7">
         <v>110</v>
@@ -17972,7 +17974,7 @@
         <v>511</v>
       </c>
       <c r="B519" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C519" s="7">
         <v>111</v>
@@ -18006,7 +18008,7 @@
         <v>512</v>
       </c>
       <c r="B520" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C520" s="7">
         <v>112</v>
@@ -18040,7 +18042,7 @@
         <v>513</v>
       </c>
       <c r="B521" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C521" s="7">
         <v>113</v>
@@ -18074,7 +18076,7 @@
         <v>514</v>
       </c>
       <c r="B522" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C522" s="7">
         <v>114</v>
@@ -18108,7 +18110,7 @@
         <v>515</v>
       </c>
       <c r="B523" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C523" s="7">
         <v>115</v>
@@ -18142,7 +18144,7 @@
         <v>516</v>
       </c>
       <c r="B524" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C524" s="7">
         <v>116</v>
@@ -18176,7 +18178,7 @@
         <v>517</v>
       </c>
       <c r="B525" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C525" s="7">
         <v>117</v>
@@ -18210,7 +18212,7 @@
         <v>518</v>
       </c>
       <c r="B526" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C526" s="7">
         <v>118</v>
@@ -18244,7 +18246,7 @@
         <v>519</v>
       </c>
       <c r="B527" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C527" s="7">
         <v>119</v>
@@ -18278,7 +18280,7 @@
         <v>520</v>
       </c>
       <c r="B528" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C528" s="7">
         <v>120</v>
@@ -18312,7 +18314,7 @@
         <v>521</v>
       </c>
       <c r="B529" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C529" s="7">
         <v>121</v>
@@ -18346,7 +18348,7 @@
         <v>522</v>
       </c>
       <c r="B530" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C530" s="7">
         <v>122</v>
@@ -18380,7 +18382,7 @@
         <v>523</v>
       </c>
       <c r="B531" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C531" s="7">
         <v>123</v>
@@ -18414,7 +18416,7 @@
         <v>524</v>
       </c>
       <c r="B532" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C532" s="7">
         <v>124</v>
@@ -18448,7 +18450,7 @@
         <v>525</v>
       </c>
       <c r="B533" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C533" s="7">
         <v>125</v>
@@ -18482,7 +18484,7 @@
         <v>526</v>
       </c>
       <c r="B534" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C534" s="7">
         <v>126</v>
@@ -18516,7 +18518,7 @@
         <v>527</v>
       </c>
       <c r="B535" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C535" s="7">
         <v>127</v>
@@ -18550,7 +18552,7 @@
         <v>528</v>
       </c>
       <c r="B536" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C536" s="7">
         <v>128</v>
@@ -18584,7 +18586,7 @@
         <v>529</v>
       </c>
       <c r="B537" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C537" s="7">
         <v>129</v>
@@ -18618,7 +18620,7 @@
         <v>530</v>
       </c>
       <c r="B538" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C538" s="7">
         <v>130</v>
@@ -18652,7 +18654,7 @@
         <v>531</v>
       </c>
       <c r="B539" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C539" s="7">
         <v>131</v>
@@ -18686,7 +18688,7 @@
         <v>532</v>
       </c>
       <c r="B540" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C540" s="7">
         <v>132</v>
@@ -18720,7 +18722,7 @@
         <v>533</v>
       </c>
       <c r="B541" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C541" s="7">
         <v>133</v>
@@ -18754,7 +18756,7 @@
         <v>534</v>
       </c>
       <c r="B542" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C542" s="7">
         <v>134</v>
@@ -18788,7 +18790,7 @@
         <v>535</v>
       </c>
       <c r="B543" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C543" s="7">
         <v>135</v>
@@ -18822,7 +18824,7 @@
         <v>536</v>
       </c>
       <c r="B544" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C544" s="7">
         <v>136</v>
@@ -18856,7 +18858,7 @@
         <v>537</v>
       </c>
       <c r="B545" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C545" s="7">
         <v>137</v>
@@ -18890,7 +18892,7 @@
         <v>538</v>
       </c>
       <c r="B546" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C546" s="7">
         <v>138</v>
@@ -18924,7 +18926,7 @@
         <v>539</v>
       </c>
       <c r="B547" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C547" s="7">
         <v>139</v>
@@ -18958,7 +18960,7 @@
         <v>540</v>
       </c>
       <c r="B548" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C548" s="7">
         <v>140</v>
@@ -18992,7 +18994,7 @@
         <v>541</v>
       </c>
       <c r="B549" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C549" s="7">
         <v>141</v>
@@ -19026,7 +19028,7 @@
         <v>542</v>
       </c>
       <c r="B550" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C550" s="7">
         <v>142</v>
@@ -19060,7 +19062,7 @@
         <v>543</v>
       </c>
       <c r="B551" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C551" s="7">
         <v>143</v>
@@ -19094,7 +19096,7 @@
         <v>544</v>
       </c>
       <c r="B552" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C552" s="7">
         <v>144</v>
@@ -19128,7 +19130,7 @@
         <v>545</v>
       </c>
       <c r="B553" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C553" s="7">
         <v>145</v>
@@ -19162,7 +19164,7 @@
         <v>546</v>
       </c>
       <c r="B554" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C554" s="7">
         <v>146</v>
@@ -19196,7 +19198,7 @@
         <v>547</v>
       </c>
       <c r="B555" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C555" s="7">
         <v>147</v>
@@ -19230,7 +19232,7 @@
         <v>548</v>
       </c>
       <c r="B556" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C556" s="7">
         <v>148</v>
@@ -19264,7 +19266,7 @@
         <v>549</v>
       </c>
       <c r="B557" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C557" s="7">
         <v>149</v>
@@ -19298,7 +19300,7 @@
         <v>550</v>
       </c>
       <c r="B558" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C558" s="7">
         <v>150</v>
@@ -19332,7 +19334,7 @@
         <v>551</v>
       </c>
       <c r="B559" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C559" s="7">
         <v>151</v>
@@ -19366,7 +19368,7 @@
         <v>552</v>
       </c>
       <c r="B560" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C560" s="7">
         <v>152</v>
@@ -19400,7 +19402,7 @@
         <v>553</v>
       </c>
       <c r="B561" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C561" s="7">
         <v>153</v>
@@ -19434,7 +19436,7 @@
         <v>554</v>
       </c>
       <c r="B562" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C562" s="7">
         <v>154</v>
@@ -19468,7 +19470,7 @@
         <v>555</v>
       </c>
       <c r="B563" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C563" s="7">
         <v>155</v>
@@ -19502,7 +19504,7 @@
         <v>556</v>
       </c>
       <c r="B564" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C564" s="7">
         <v>156</v>
@@ -19536,7 +19538,7 @@
         <v>557</v>
       </c>
       <c r="B565" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C565" s="7">
         <v>157</v>
@@ -19570,7 +19572,7 @@
         <v>558</v>
       </c>
       <c r="B566" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C566" s="7">
         <v>158</v>
@@ -19604,7 +19606,7 @@
         <v>559</v>
       </c>
       <c r="B567" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C567" s="7">
         <v>159</v>
@@ -19638,7 +19640,7 @@
         <v>560</v>
       </c>
       <c r="B568" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C568" s="7">
         <v>160</v>
@@ -19672,7 +19674,7 @@
         <v>561</v>
       </c>
       <c r="B569" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C569" s="7">
         <v>161</v>
@@ -19706,7 +19708,7 @@
         <v>562</v>
       </c>
       <c r="B570" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C570" s="7">
         <v>162</v>
@@ -19740,7 +19742,7 @@
         <v>563</v>
       </c>
       <c r="B571" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C571" s="7">
         <v>163</v>
@@ -19774,7 +19776,7 @@
         <v>564</v>
       </c>
       <c r="B572" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C572" s="7">
         <v>164</v>
@@ -19808,7 +19810,7 @@
         <v>565</v>
       </c>
       <c r="B573" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C573" s="7">
         <v>165</v>
@@ -19842,7 +19844,7 @@
         <v>566</v>
       </c>
       <c r="B574" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C574" s="7">
         <v>166</v>
@@ -19876,7 +19878,7 @@
         <v>567</v>
       </c>
       <c r="B575" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C575" s="7">
         <v>167</v>
@@ -19910,7 +19912,7 @@
         <v>568</v>
       </c>
       <c r="B576" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C576" s="7">
         <v>168</v>
@@ -19944,7 +19946,7 @@
         <v>569</v>
       </c>
       <c r="B577" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C577" s="7">
         <v>169</v>
@@ -19978,7 +19980,7 @@
         <v>570</v>
       </c>
       <c r="B578" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C578" s="7">
         <v>170</v>
@@ -20012,7 +20014,7 @@
         <v>571</v>
       </c>
       <c r="B579" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C579" s="7">
         <v>171</v>
@@ -20046,7 +20048,7 @@
         <v>572</v>
       </c>
       <c r="B580" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C580" s="7">
         <v>172</v>
@@ -20080,7 +20082,7 @@
         <v>573</v>
       </c>
       <c r="B581" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C581" s="7">
         <v>173</v>
@@ -20114,7 +20116,7 @@
         <v>574</v>
       </c>
       <c r="B582" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C582" s="7">
         <v>174</v>
@@ -20148,7 +20150,7 @@
         <v>575</v>
       </c>
       <c r="B583" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C583" s="7">
         <v>175</v>
@@ -20182,7 +20184,7 @@
         <v>576</v>
       </c>
       <c r="B584" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C584" s="7">
         <v>176</v>
@@ -20216,7 +20218,7 @@
         <v>577</v>
       </c>
       <c r="B585" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C585" s="7">
         <v>177</v>
@@ -20250,7 +20252,7 @@
         <v>578</v>
       </c>
       <c r="B586" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C586" s="7">
         <v>178</v>
@@ -20284,7 +20286,7 @@
         <v>579</v>
       </c>
       <c r="B587" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C587" s="7">
         <v>179</v>
@@ -20318,7 +20320,7 @@
         <v>580</v>
       </c>
       <c r="B588" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C588" s="7">
         <v>180</v>
@@ -20352,7 +20354,7 @@
         <v>581</v>
       </c>
       <c r="B589" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C589" s="7">
         <v>181</v>
@@ -20386,7 +20388,7 @@
         <v>582</v>
       </c>
       <c r="B590" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C590" s="7">
         <v>182</v>
@@ -20420,7 +20422,7 @@
         <v>583</v>
       </c>
       <c r="B591" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C591" s="7">
         <v>183</v>
@@ -20454,7 +20456,7 @@
         <v>584</v>
       </c>
       <c r="B592" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C592" s="7">
         <v>184</v>
@@ -20488,7 +20490,7 @@
         <v>585</v>
       </c>
       <c r="B593" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C593" s="7">
         <v>185</v>
@@ -20522,7 +20524,7 @@
         <v>586</v>
       </c>
       <c r="B594" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C594" s="7">
         <v>186</v>
@@ -20556,7 +20558,7 @@
         <v>587</v>
       </c>
       <c r="B595" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C595" s="7">
         <v>187</v>
@@ -20590,7 +20592,7 @@
         <v>588</v>
       </c>
       <c r="B596" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C596" s="7">
         <v>188</v>
@@ -20624,7 +20626,7 @@
         <v>589</v>
       </c>
       <c r="B597" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C597" s="7">
         <v>189</v>
@@ -20658,7 +20660,7 @@
         <v>590</v>
       </c>
       <c r="B598" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C598" s="7">
         <v>190</v>
@@ -20692,7 +20694,7 @@
         <v>591</v>
       </c>
       <c r="B599" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C599" s="7">
         <v>191</v>
@@ -20726,7 +20728,7 @@
         <v>592</v>
       </c>
       <c r="B600" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C600" s="7">
         <v>192</v>
@@ -20760,7 +20762,7 @@
         <v>593</v>
       </c>
       <c r="B601" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C601" s="7">
         <v>193</v>
@@ -20794,7 +20796,7 @@
         <v>594</v>
       </c>
       <c r="B602" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C602" s="7">
         <v>194</v>
@@ -20828,7 +20830,7 @@
         <v>595</v>
       </c>
       <c r="B603" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C603" s="7">
         <v>195</v>
@@ -20862,7 +20864,7 @@
         <v>596</v>
       </c>
       <c r="B604" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C604" s="7">
         <v>196</v>
@@ -20896,7 +20898,7 @@
         <v>597</v>
       </c>
       <c r="B605" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C605" s="7">
         <v>197</v>
@@ -20930,7 +20932,7 @@
         <v>598</v>
       </c>
       <c r="B606" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C606" s="7">
         <v>198</v>
@@ -20964,7 +20966,7 @@
         <v>599</v>
       </c>
       <c r="B607" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C607" s="7">
         <v>199</v>
@@ -20998,7 +21000,7 @@
         <v>600</v>
       </c>
       <c r="B608" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C608" s="7">
         <v>200</v>
@@ -27857,7 +27859,7 @@
         <v>801</v>
       </c>
       <c r="B813" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C813" s="7">
         <v>1</v>
@@ -27891,7 +27893,7 @@
         <v>802</v>
       </c>
       <c r="B814" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C814" s="7">
         <v>2</v>
@@ -27925,7 +27927,7 @@
         <v>803</v>
       </c>
       <c r="B815" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C815" s="7">
         <v>3</v>
@@ -27959,7 +27961,7 @@
         <v>804</v>
       </c>
       <c r="B816" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C816" s="7">
         <v>4</v>
@@ -27993,7 +27995,7 @@
         <v>805</v>
       </c>
       <c r="B817" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C817" s="7">
         <v>5</v>
@@ -28027,7 +28029,7 @@
         <v>806</v>
       </c>
       <c r="B818" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C818" s="7">
         <v>6</v>
@@ -28061,7 +28063,7 @@
         <v>807</v>
       </c>
       <c r="B819" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C819" s="7">
         <v>7</v>
@@ -28095,7 +28097,7 @@
         <v>808</v>
       </c>
       <c r="B820" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C820" s="7">
         <v>8</v>
@@ -28129,7 +28131,7 @@
         <v>809</v>
       </c>
       <c r="B821" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C821" s="7">
         <v>9</v>
@@ -28163,7 +28165,7 @@
         <v>810</v>
       </c>
       <c r="B822" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C822" s="7">
         <v>10</v>
@@ -28197,7 +28199,7 @@
         <v>811</v>
       </c>
       <c r="B823" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C823" s="7">
         <v>11</v>
@@ -28231,7 +28233,7 @@
         <v>812</v>
       </c>
       <c r="B824" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C824" s="7">
         <v>12</v>
@@ -28265,7 +28267,7 @@
         <v>813</v>
       </c>
       <c r="B825" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C825" s="7">
         <v>13</v>
@@ -28299,7 +28301,7 @@
         <v>814</v>
       </c>
       <c r="B826" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C826" s="7">
         <v>14</v>
@@ -28333,7 +28335,7 @@
         <v>815</v>
       </c>
       <c r="B827" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C827" s="7">
         <v>15</v>
@@ -28367,7 +28369,7 @@
         <v>816</v>
       </c>
       <c r="B828" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C828" s="7">
         <v>16</v>
@@ -28401,7 +28403,7 @@
         <v>817</v>
       </c>
       <c r="B829" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C829" s="7">
         <v>17</v>
@@ -28435,7 +28437,7 @@
         <v>818</v>
       </c>
       <c r="B830" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C830" s="7">
         <v>18</v>
@@ -28469,7 +28471,7 @@
         <v>819</v>
       </c>
       <c r="B831" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C831" s="7">
         <v>19</v>
@@ -28503,7 +28505,7 @@
         <v>820</v>
       </c>
       <c r="B832" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C832" s="7">
         <v>20</v>
@@ -28537,7 +28539,7 @@
         <v>821</v>
       </c>
       <c r="B833" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C833" s="7">
         <v>21</v>
@@ -28571,7 +28573,7 @@
         <v>822</v>
       </c>
       <c r="B834" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C834" s="7">
         <v>22</v>
@@ -28605,7 +28607,7 @@
         <v>823</v>
       </c>
       <c r="B835" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C835" s="7">
         <v>23</v>
@@ -28639,7 +28641,7 @@
         <v>824</v>
       </c>
       <c r="B836" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C836" s="7">
         <v>24</v>
@@ -28673,7 +28675,7 @@
         <v>825</v>
       </c>
       <c r="B837" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C837" s="7">
         <v>25</v>
@@ -28707,7 +28709,7 @@
         <v>826</v>
       </c>
       <c r="B838" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C838" s="7">
         <v>26</v>
@@ -28741,7 +28743,7 @@
         <v>827</v>
       </c>
       <c r="B839" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C839" s="7">
         <v>27</v>
@@ -28775,7 +28777,7 @@
         <v>828</v>
       </c>
       <c r="B840" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C840" s="7">
         <v>28</v>
@@ -28809,7 +28811,7 @@
         <v>829</v>
       </c>
       <c r="B841" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C841" s="7">
         <v>29</v>
@@ -28843,7 +28845,7 @@
         <v>830</v>
       </c>
       <c r="B842" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C842" s="7">
         <v>30</v>
@@ -28877,7 +28879,7 @@
         <v>831</v>
       </c>
       <c r="B843" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C843" s="7">
         <v>31</v>
@@ -28911,7 +28913,7 @@
         <v>832</v>
       </c>
       <c r="B844" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C844" s="7">
         <v>32</v>
@@ -28945,7 +28947,7 @@
         <v>833</v>
       </c>
       <c r="B845" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C845" s="7">
         <v>33</v>
@@ -28979,7 +28981,7 @@
         <v>834</v>
       </c>
       <c r="B846" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C846" s="7">
         <v>34</v>
@@ -29013,7 +29015,7 @@
         <v>835</v>
       </c>
       <c r="B847" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C847" s="7">
         <v>35</v>
@@ -29047,7 +29049,7 @@
         <v>836</v>
       </c>
       <c r="B848" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C848" s="7">
         <v>36</v>
@@ -29081,7 +29083,7 @@
         <v>837</v>
       </c>
       <c r="B849" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C849" s="7">
         <v>37</v>
@@ -29115,7 +29117,7 @@
         <v>838</v>
       </c>
       <c r="B850" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C850" s="7">
         <v>38</v>
@@ -29149,7 +29151,7 @@
         <v>839</v>
       </c>
       <c r="B851" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C851" s="7">
         <v>39</v>
@@ -29183,7 +29185,7 @@
         <v>840</v>
       </c>
       <c r="B852" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C852" s="7">
         <v>40</v>
@@ -29217,7 +29219,7 @@
         <v>841</v>
       </c>
       <c r="B853" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C853" s="7">
         <v>41</v>
@@ -29251,7 +29253,7 @@
         <v>842</v>
       </c>
       <c r="B854" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C854" s="7">
         <v>42</v>
@@ -29285,7 +29287,7 @@
         <v>843</v>
       </c>
       <c r="B855" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C855" s="7">
         <v>43</v>
@@ -29319,7 +29321,7 @@
         <v>844</v>
       </c>
       <c r="B856" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C856" s="7">
         <v>44</v>
@@ -29353,7 +29355,7 @@
         <v>845</v>
       </c>
       <c r="B857" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C857" s="7">
         <v>45</v>
@@ -29387,7 +29389,7 @@
         <v>846</v>
       </c>
       <c r="B858" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C858" s="7">
         <v>46</v>
@@ -29421,7 +29423,7 @@
         <v>847</v>
       </c>
       <c r="B859" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C859" s="7">
         <v>47</v>
@@ -29455,7 +29457,7 @@
         <v>848</v>
       </c>
       <c r="B860" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C860" s="7">
         <v>48</v>
@@ -29489,7 +29491,7 @@
         <v>849</v>
       </c>
       <c r="B861" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C861" s="7">
         <v>49</v>
@@ -29523,7 +29525,7 @@
         <v>850</v>
       </c>
       <c r="B862" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C862" s="7">
         <v>50</v>
@@ -29557,7 +29559,7 @@
         <v>851</v>
       </c>
       <c r="B863" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C863" s="7">
         <v>51</v>
@@ -29591,7 +29593,7 @@
         <v>852</v>
       </c>
       <c r="B864" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C864" s="7">
         <v>52</v>
@@ -29625,7 +29627,7 @@
         <v>853</v>
       </c>
       <c r="B865" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C865" s="7">
         <v>53</v>
@@ -29659,7 +29661,7 @@
         <v>854</v>
       </c>
       <c r="B866" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C866" s="7">
         <v>54</v>
@@ -29693,7 +29695,7 @@
         <v>855</v>
       </c>
       <c r="B867" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C867" s="7">
         <v>55</v>
@@ -29727,7 +29729,7 @@
         <v>856</v>
       </c>
       <c r="B868" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C868" s="7">
         <v>56</v>
@@ -29761,7 +29763,7 @@
         <v>857</v>
       </c>
       <c r="B869" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C869" s="7">
         <v>57</v>
@@ -29795,7 +29797,7 @@
         <v>858</v>
       </c>
       <c r="B870" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C870" s="7">
         <v>58</v>
@@ -29829,7 +29831,7 @@
         <v>859</v>
       </c>
       <c r="B871" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C871" s="7">
         <v>59</v>
@@ -29863,7 +29865,7 @@
         <v>860</v>
       </c>
       <c r="B872" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C872" s="7">
         <v>60</v>
@@ -29897,7 +29899,7 @@
         <v>861</v>
       </c>
       <c r="B873" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C873" s="7">
         <v>61</v>
@@ -29931,7 +29933,7 @@
         <v>862</v>
       </c>
       <c r="B874" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C874" s="7">
         <v>62</v>
@@ -29965,7 +29967,7 @@
         <v>863</v>
       </c>
       <c r="B875" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C875" s="7">
         <v>63</v>
@@ -29999,7 +30001,7 @@
         <v>864</v>
       </c>
       <c r="B876" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C876" s="7">
         <v>64</v>
@@ -30033,7 +30035,7 @@
         <v>865</v>
       </c>
       <c r="B877" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C877" s="7">
         <v>65</v>
@@ -30067,7 +30069,7 @@
         <v>866</v>
       </c>
       <c r="B878" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C878" s="7">
         <v>66</v>
@@ -30101,7 +30103,7 @@
         <v>867</v>
       </c>
       <c r="B879" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C879" s="7">
         <v>67</v>
@@ -30135,7 +30137,7 @@
         <v>868</v>
       </c>
       <c r="B880" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C880" s="7">
         <v>68</v>
@@ -30169,7 +30171,7 @@
         <v>869</v>
       </c>
       <c r="B881" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C881" s="7">
         <v>69</v>
@@ -30203,7 +30205,7 @@
         <v>870</v>
       </c>
       <c r="B882" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C882" s="7">
         <v>70</v>
@@ -30237,7 +30239,7 @@
         <v>871</v>
       </c>
       <c r="B883" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C883" s="7">
         <v>71</v>
@@ -30271,7 +30273,7 @@
         <v>872</v>
       </c>
       <c r="B884" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C884" s="7">
         <v>72</v>
@@ -30305,7 +30307,7 @@
         <v>873</v>
       </c>
       <c r="B885" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C885" s="7">
         <v>73</v>
@@ -30339,7 +30341,7 @@
         <v>874</v>
       </c>
       <c r="B886" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C886" s="7">
         <v>74</v>
@@ -30373,7 +30375,7 @@
         <v>875</v>
       </c>
       <c r="B887" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C887" s="7">
         <v>75</v>
@@ -30407,7 +30409,7 @@
         <v>876</v>
       </c>
       <c r="B888" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C888" s="7">
         <v>76</v>
@@ -30441,7 +30443,7 @@
         <v>877</v>
       </c>
       <c r="B889" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C889" s="7">
         <v>77</v>
@@ -30475,7 +30477,7 @@
         <v>878</v>
       </c>
       <c r="B890" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C890" s="7">
         <v>78</v>
@@ -30509,7 +30511,7 @@
         <v>879</v>
       </c>
       <c r="B891" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C891" s="7">
         <v>79</v>
@@ -30543,7 +30545,7 @@
         <v>880</v>
       </c>
       <c r="B892" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C892" s="7">
         <v>80</v>
@@ -30577,7 +30579,7 @@
         <v>881</v>
       </c>
       <c r="B893" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C893" s="7">
         <v>81</v>
@@ -30611,7 +30613,7 @@
         <v>882</v>
       </c>
       <c r="B894" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C894" s="7">
         <v>82</v>
@@ -30645,7 +30647,7 @@
         <v>883</v>
       </c>
       <c r="B895" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C895" s="7">
         <v>83</v>
@@ -30679,7 +30681,7 @@
         <v>884</v>
       </c>
       <c r="B896" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C896" s="7">
         <v>84</v>
@@ -30713,7 +30715,7 @@
         <v>885</v>
       </c>
       <c r="B897" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C897" s="7">
         <v>85</v>
@@ -30747,7 +30749,7 @@
         <v>886</v>
       </c>
       <c r="B898" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C898" s="7">
         <v>86</v>
@@ -30781,7 +30783,7 @@
         <v>887</v>
       </c>
       <c r="B899" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C899" s="7">
         <v>87</v>
@@ -30815,7 +30817,7 @@
         <v>888</v>
       </c>
       <c r="B900" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C900" s="7">
         <v>88</v>
@@ -30849,7 +30851,7 @@
         <v>889</v>
       </c>
       <c r="B901" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C901" s="7">
         <v>89</v>
@@ -30883,7 +30885,7 @@
         <v>890</v>
       </c>
       <c r="B902" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C902" s="7">
         <v>90</v>
@@ -30917,7 +30919,7 @@
         <v>891</v>
       </c>
       <c r="B903" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C903" s="7">
         <v>91</v>
@@ -30951,7 +30953,7 @@
         <v>892</v>
       </c>
       <c r="B904" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C904" s="7">
         <v>92</v>
@@ -30985,7 +30987,7 @@
         <v>893</v>
       </c>
       <c r="B905" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C905" s="7">
         <v>93</v>
@@ -31019,7 +31021,7 @@
         <v>894</v>
       </c>
       <c r="B906" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C906" s="7">
         <v>94</v>
@@ -31053,7 +31055,7 @@
         <v>895</v>
       </c>
       <c r="B907" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C907" s="7">
         <v>95</v>
@@ -31087,7 +31089,7 @@
         <v>896</v>
       </c>
       <c r="B908" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C908" s="7">
         <v>96</v>
@@ -31121,7 +31123,7 @@
         <v>897</v>
       </c>
       <c r="B909" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C909" s="7">
         <v>97</v>
@@ -31155,7 +31157,7 @@
         <v>898</v>
       </c>
       <c r="B910" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C910" s="7">
         <v>98</v>
@@ -31189,7 +31191,7 @@
         <v>899</v>
       </c>
       <c r="B911" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C911" s="7">
         <v>99</v>
@@ -31223,7 +31225,7 @@
         <v>900</v>
       </c>
       <c r="B912" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C912" s="7">
         <v>100</v>
@@ -31257,7 +31259,7 @@
         <v>901</v>
       </c>
       <c r="B913" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C913" s="7">
         <v>101</v>
@@ -31291,7 +31293,7 @@
         <v>902</v>
       </c>
       <c r="B914" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C914" s="7">
         <v>102</v>
@@ -31325,7 +31327,7 @@
         <v>903</v>
       </c>
       <c r="B915" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C915" s="7">
         <v>103</v>
@@ -31359,7 +31361,7 @@
         <v>904</v>
       </c>
       <c r="B916" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C916" s="7">
         <v>104</v>
@@ -31393,7 +31395,7 @@
         <v>905</v>
       </c>
       <c r="B917" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C917" s="7">
         <v>105</v>
@@ -31427,7 +31429,7 @@
         <v>906</v>
       </c>
       <c r="B918" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C918" s="7">
         <v>106</v>
@@ -31461,7 +31463,7 @@
         <v>907</v>
       </c>
       <c r="B919" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C919" s="7">
         <v>107</v>
@@ -31495,7 +31497,7 @@
         <v>908</v>
       </c>
       <c r="B920" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C920" s="7">
         <v>108</v>
@@ -31529,7 +31531,7 @@
         <v>909</v>
       </c>
       <c r="B921" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C921" s="7">
         <v>109</v>
@@ -31563,7 +31565,7 @@
         <v>910</v>
       </c>
       <c r="B922" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C922" s="7">
         <v>110</v>
@@ -31597,7 +31599,7 @@
         <v>911</v>
       </c>
       <c r="B923" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C923" s="7">
         <v>111</v>
@@ -31631,7 +31633,7 @@
         <v>912</v>
       </c>
       <c r="B924" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C924" s="7">
         <v>112</v>
@@ -31665,7 +31667,7 @@
         <v>913</v>
       </c>
       <c r="B925" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C925" s="7">
         <v>113</v>
@@ -31699,7 +31701,7 @@
         <v>914</v>
       </c>
       <c r="B926" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C926" s="7">
         <v>114</v>
@@ -31733,7 +31735,7 @@
         <v>915</v>
       </c>
       <c r="B927" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C927" s="7">
         <v>115</v>
@@ -31767,7 +31769,7 @@
         <v>916</v>
       </c>
       <c r="B928" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C928" s="7">
         <v>116</v>
@@ -31801,7 +31803,7 @@
         <v>917</v>
       </c>
       <c r="B929" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C929" s="7">
         <v>117</v>
@@ -31835,7 +31837,7 @@
         <v>918</v>
       </c>
       <c r="B930" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C930" s="7">
         <v>118</v>
@@ -31869,7 +31871,7 @@
         <v>919</v>
       </c>
       <c r="B931" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C931" s="7">
         <v>119</v>
@@ -31903,7 +31905,7 @@
         <v>920</v>
       </c>
       <c r="B932" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C932" s="7">
         <v>120</v>
@@ -31937,7 +31939,7 @@
         <v>921</v>
       </c>
       <c r="B933" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C933" s="7">
         <v>121</v>
@@ -31971,7 +31973,7 @@
         <v>922</v>
       </c>
       <c r="B934" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C934" s="7">
         <v>122</v>
@@ -32005,7 +32007,7 @@
         <v>923</v>
       </c>
       <c r="B935" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C935" s="7">
         <v>123</v>
@@ -32039,7 +32041,7 @@
         <v>924</v>
       </c>
       <c r="B936" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C936" s="7">
         <v>124</v>
@@ -32073,7 +32075,7 @@
         <v>925</v>
       </c>
       <c r="B937" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C937" s="7">
         <v>125</v>
@@ -32107,7 +32109,7 @@
         <v>926</v>
       </c>
       <c r="B938" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C938" s="7">
         <v>126</v>
@@ -32141,7 +32143,7 @@
         <v>927</v>
       </c>
       <c r="B939" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C939" s="7">
         <v>127</v>
@@ -32175,7 +32177,7 @@
         <v>928</v>
       </c>
       <c r="B940" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C940" s="7">
         <v>128</v>
@@ -32209,7 +32211,7 @@
         <v>929</v>
       </c>
       <c r="B941" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C941" s="7">
         <v>129</v>
@@ -32243,7 +32245,7 @@
         <v>930</v>
       </c>
       <c r="B942" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C942" s="7">
         <v>130</v>
@@ -32277,7 +32279,7 @@
         <v>931</v>
       </c>
       <c r="B943" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C943" s="7">
         <v>131</v>
@@ -32311,7 +32313,7 @@
         <v>932</v>
       </c>
       <c r="B944" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C944" s="7">
         <v>132</v>
@@ -32345,7 +32347,7 @@
         <v>933</v>
       </c>
       <c r="B945" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C945" s="7">
         <v>133</v>
@@ -32379,7 +32381,7 @@
         <v>934</v>
       </c>
       <c r="B946" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C946" s="7">
         <v>134</v>
@@ -32413,7 +32415,7 @@
         <v>935</v>
       </c>
       <c r="B947" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C947" s="7">
         <v>135</v>
@@ -32447,7 +32449,7 @@
         <v>936</v>
       </c>
       <c r="B948" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C948" s="7">
         <v>136</v>
@@ -32481,7 +32483,7 @@
         <v>937</v>
       </c>
       <c r="B949" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C949" s="7">
         <v>137</v>
@@ -32515,7 +32517,7 @@
         <v>938</v>
       </c>
       <c r="B950" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C950" s="7">
         <v>138</v>
@@ -32549,7 +32551,7 @@
         <v>939</v>
       </c>
       <c r="B951" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C951" s="7">
         <v>139</v>
@@ -32583,7 +32585,7 @@
         <v>940</v>
       </c>
       <c r="B952" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C952" s="7">
         <v>140</v>
@@ -32617,7 +32619,7 @@
         <v>941</v>
       </c>
       <c r="B953" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C953" s="7">
         <v>141</v>
@@ -32651,7 +32653,7 @@
         <v>942</v>
       </c>
       <c r="B954" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C954" s="7">
         <v>142</v>
@@ -32685,7 +32687,7 @@
         <v>943</v>
       </c>
       <c r="B955" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C955" s="7">
         <v>143</v>
@@ -32719,7 +32721,7 @@
         <v>944</v>
       </c>
       <c r="B956" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C956" s="7">
         <v>144</v>
@@ -32753,7 +32755,7 @@
         <v>945</v>
       </c>
       <c r="B957" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C957" s="7">
         <v>145</v>
@@ -32787,7 +32789,7 @@
         <v>946</v>
       </c>
       <c r="B958" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C958" s="7">
         <v>146</v>
@@ -32821,7 +32823,7 @@
         <v>947</v>
       </c>
       <c r="B959" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C959" s="7">
         <v>147</v>
@@ -32855,7 +32857,7 @@
         <v>948</v>
       </c>
       <c r="B960" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C960" s="7">
         <v>148</v>
@@ -32889,7 +32891,7 @@
         <v>949</v>
       </c>
       <c r="B961" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C961" s="7">
         <v>149</v>
@@ -32923,7 +32925,7 @@
         <v>950</v>
       </c>
       <c r="B962" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C962" s="7">
         <v>150</v>
@@ -32957,7 +32959,7 @@
         <v>951</v>
       </c>
       <c r="B963" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C963" s="7">
         <v>151</v>
@@ -32991,7 +32993,7 @@
         <v>952</v>
       </c>
       <c r="B964" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C964" s="7">
         <v>152</v>
@@ -33025,7 +33027,7 @@
         <v>953</v>
       </c>
       <c r="B965" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C965" s="7">
         <v>153</v>
@@ -33059,7 +33061,7 @@
         <v>954</v>
       </c>
       <c r="B966" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C966" s="7">
         <v>154</v>
@@ -33093,7 +33095,7 @@
         <v>955</v>
       </c>
       <c r="B967" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C967" s="7">
         <v>155</v>
@@ -33127,7 +33129,7 @@
         <v>956</v>
       </c>
       <c r="B968" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C968" s="7">
         <v>156</v>
@@ -33161,7 +33163,7 @@
         <v>957</v>
       </c>
       <c r="B969" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C969" s="7">
         <v>157</v>
@@ -33195,7 +33197,7 @@
         <v>958</v>
       </c>
       <c r="B970" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C970" s="7">
         <v>158</v>
@@ -33229,7 +33231,7 @@
         <v>959</v>
       </c>
       <c r="B971" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C971" s="7">
         <v>159</v>
@@ -33263,7 +33265,7 @@
         <v>960</v>
       </c>
       <c r="B972" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C972" s="7">
         <v>160</v>
@@ -33297,7 +33299,7 @@
         <v>961</v>
       </c>
       <c r="B973" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C973" s="7">
         <v>161</v>
@@ -33331,7 +33333,7 @@
         <v>962</v>
       </c>
       <c r="B974" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C974" s="7">
         <v>162</v>
@@ -33365,7 +33367,7 @@
         <v>963</v>
       </c>
       <c r="B975" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C975" s="7">
         <v>163</v>
@@ -33399,7 +33401,7 @@
         <v>964</v>
       </c>
       <c r="B976" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C976" s="7">
         <v>164</v>
@@ -33433,7 +33435,7 @@
         <v>965</v>
       </c>
       <c r="B977" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C977" s="7">
         <v>165</v>
@@ -33467,7 +33469,7 @@
         <v>966</v>
       </c>
       <c r="B978" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C978" s="7">
         <v>166</v>
@@ -33501,7 +33503,7 @@
         <v>967</v>
       </c>
       <c r="B979" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C979" s="7">
         <v>167</v>
@@ -33535,7 +33537,7 @@
         <v>968</v>
       </c>
       <c r="B980" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C980" s="7">
         <v>168</v>
@@ -33569,7 +33571,7 @@
         <v>969</v>
       </c>
       <c r="B981" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C981" s="7">
         <v>169</v>
@@ -33603,7 +33605,7 @@
         <v>970</v>
       </c>
       <c r="B982" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C982" s="7">
         <v>170</v>
@@ -33637,7 +33639,7 @@
         <v>971</v>
       </c>
       <c r="B983" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C983" s="7">
         <v>171</v>
@@ -33671,7 +33673,7 @@
         <v>972</v>
       </c>
       <c r="B984" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C984" s="7">
         <v>172</v>
@@ -33705,7 +33707,7 @@
         <v>973</v>
       </c>
       <c r="B985" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C985" s="7">
         <v>173</v>
@@ -33739,7 +33741,7 @@
         <v>974</v>
       </c>
       <c r="B986" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C986" s="7">
         <v>174</v>
@@ -33773,7 +33775,7 @@
         <v>975</v>
       </c>
       <c r="B987" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C987" s="7">
         <v>175</v>
@@ -33807,7 +33809,7 @@
         <v>976</v>
       </c>
       <c r="B988" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C988" s="7">
         <v>176</v>
@@ -33841,7 +33843,7 @@
         <v>977</v>
       </c>
       <c r="B989" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C989" s="7">
         <v>177</v>
@@ -33875,7 +33877,7 @@
         <v>978</v>
       </c>
       <c r="B990" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C990" s="7">
         <v>178</v>
@@ -33909,7 +33911,7 @@
         <v>979</v>
       </c>
       <c r="B991" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C991" s="7">
         <v>179</v>
@@ -33943,7 +33945,7 @@
         <v>980</v>
       </c>
       <c r="B992" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C992" s="7">
         <v>180</v>
@@ -33977,7 +33979,7 @@
         <v>981</v>
       </c>
       <c r="B993" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C993" s="7">
         <v>181</v>
@@ -34011,7 +34013,7 @@
         <v>982</v>
       </c>
       <c r="B994" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C994" s="7">
         <v>182</v>
@@ -34045,7 +34047,7 @@
         <v>983</v>
       </c>
       <c r="B995" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C995" s="7">
         <v>183</v>
@@ -34079,7 +34081,7 @@
         <v>984</v>
       </c>
       <c r="B996" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C996" s="7">
         <v>184</v>
@@ -34113,7 +34115,7 @@
         <v>985</v>
       </c>
       <c r="B997" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C997" s="7">
         <v>185</v>
@@ -34147,7 +34149,7 @@
         <v>986</v>
       </c>
       <c r="B998" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C998" s="7">
         <v>186</v>
@@ -34181,7 +34183,7 @@
         <v>987</v>
       </c>
       <c r="B999" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C999" s="7">
         <v>187</v>
@@ -34215,7 +34217,7 @@
         <v>988</v>
       </c>
       <c r="B1000" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1000" s="7">
         <v>188</v>
@@ -34249,7 +34251,7 @@
         <v>989</v>
       </c>
       <c r="B1001" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1001" s="7">
         <v>189</v>
@@ -34283,7 +34285,7 @@
         <v>990</v>
       </c>
       <c r="B1002" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1002" s="7">
         <v>190</v>
@@ -34317,7 +34319,7 @@
         <v>991</v>
       </c>
       <c r="B1003" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1003" s="7">
         <v>191</v>
@@ -34351,7 +34353,7 @@
         <v>992</v>
       </c>
       <c r="B1004" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1004" s="7">
         <v>192</v>
@@ -34385,7 +34387,7 @@
         <v>993</v>
       </c>
       <c r="B1005" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1005" s="7">
         <v>193</v>
@@ -34419,7 +34421,7 @@
         <v>994</v>
       </c>
       <c r="B1006" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1006" s="7">
         <v>194</v>
@@ -34453,7 +34455,7 @@
         <v>995</v>
       </c>
       <c r="B1007" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1007" s="7">
         <v>195</v>
@@ -34487,7 +34489,7 @@
         <v>996</v>
       </c>
       <c r="B1008" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1008" s="7">
         <v>196</v>
@@ -34521,7 +34523,7 @@
         <v>997</v>
       </c>
       <c r="B1009" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1009" s="7">
         <v>197</v>
@@ -34555,7 +34557,7 @@
         <v>998</v>
       </c>
       <c r="B1010" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1010" s="7">
         <v>198</v>
@@ -34589,7 +34591,7 @@
         <v>999</v>
       </c>
       <c r="B1011" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1011" s="7">
         <v>199</v>
@@ -34623,7 +34625,7 @@
         <v>1000</v>
       </c>
       <c r="B1012" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1012" s="7">
         <v>200</v>
